--- a/Temp_Data_Storage/Starfleet state U_data_columncorrected.xlsx
+++ b/Temp_Data_Storage/Starfleet state U_data_columncorrected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Collected_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\styler\Documents\CAIR 2025\Temp_Data_Storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE103419-2FC1-4F7B-ABDE-EF9C47EA69BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239346B1-0FA5-4A45-B7A8-C87C0377FBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23295" yWindow="375" windowWidth="24450" windowHeight="18870" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
+    <workbookView xWindow="3225" yWindow="90" windowWidth="24420" windowHeight="18870" xr2:uid="{23C98854-689D-4614-BCEF-00B1B8F250B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="196">
   <si>
     <t>Student_ID</t>
   </si>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -707,6 +707,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA27F8DA-A225-4BFB-9E7F-13B2D04A13BB}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,6 +2300,73 @@
         <v>22</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="10">
+        <v>20020414</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" s="7">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="10">
+        <v>20060510</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="7">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="10">
+        <v>20040714</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="7">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H112">
     <sortCondition ref="G2:G112"/>
